--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2022/Табель 03.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2022/Табель 03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="15120" windowHeight="7776" tabRatio="874" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="15120" windowHeight="7776" tabRatio="874" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="103">
   <si>
     <t>Посада</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>обліку робочого часу працівників за БЕРЕЗЕНЬ 2022 р.</t>
+  </si>
+  <si>
+    <t>Гайдащук Зоряна Тарасівна (01.02.202)</t>
   </si>
 </sst>
 </file>
@@ -962,6 +965,42 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1007,57 +1046,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1073,35 +1106,14 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1111,15 +1123,6 @@
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1492,49 +1495,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="90"/>
@@ -1644,147 +1647,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="105" t="str">
+      <c r="A8" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за БЕРЕЗЕНЬ 2022 р.</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="112"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>82</v>
       </c>
       <c r="E11" s="25">
@@ -1835,28 +1838,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="86"/>
-      <c r="Y11" s="121">
+      <c r="Y11" s="100">
         <v>22</v>
       </c>
-      <c r="Z11" s="124">
+      <c r="Z11" s="103">
         <v>6500</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1905,22 +1908,22 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
       <c r="X12" s="87"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="124"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="103"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>43.5</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1969,25 +1972,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
       <c r="X13" s="87"/>
-      <c r="Y13" s="121">
+      <c r="Y13" s="100">
         <f>AB13</f>
         <v>87.5</v>
       </c>
-      <c r="Z13" s="124"/>
+      <c r="Z13" s="103"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>87.5</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -2036,12 +2039,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
       <c r="X14" s="88"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="124"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="103"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>44</v>
@@ -2126,18 +2129,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="89" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="126">
+      <c r="C18" s="104"/>
+      <c r="D18" s="105">
         <f>Мельницький!C32</f>
         <v>44652</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
       <c r="L18" s="89" t="s">
         <v>96</v>
       </c>
@@ -2179,18 +2182,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2207,6 +2198,18 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2371,63 +2374,63 @@
       <c r="Y5" s="62"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
+      <c r="A6" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="str">
+      <c r="A7" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за БЕРЕЗЕНЬ 2022 р.</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="60"/>
@@ -2457,94 +2460,94 @@
       <c r="Y8" s="60"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="112"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="109">
         <v>1</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="25">
@@ -2595,17 +2598,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="153"/>
-      <c r="Y11" s="121" t="s">
+      <c r="Y11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="Z11" s="166">
@@ -2613,10 +2616,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26" t="s">
         <v>86</v>
       </c>
@@ -2665,18 +2668,18 @@
       <c r="T12" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
       <c r="X12" s="154"/>
-      <c r="Y12" s="123"/>
+      <c r="Y12" s="102"/>
       <c r="Z12" s="166"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2725,20 +2728,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
       <c r="X13" s="154"/>
-      <c r="Y13" s="121" t="s">
+      <c r="Y13" s="100" t="s">
         <v>8</v>
       </c>
       <c r="Z13" s="166"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26" t="s">
         <v>86</v>
       </c>
@@ -2787,18 +2790,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
       <c r="X14" s="155"/>
-      <c r="Y14" s="123"/>
+      <c r="Y14" s="102"/>
       <c r="Z14" s="166"/>
     </row>
     <row r="15" spans="1:26" s="61" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="125"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="63">
         <f>Мельницький!C32</f>
         <v>44652</v>
@@ -2862,18 +2865,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2887,6 +2878,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3074,147 +3077,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
     </row>
     <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за БЕРЕЗЕНЬ 2022 р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="100" t="s">
+      <c r="Y9" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="112"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="109">
         <v>1</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="25">
@@ -3265,29 +3268,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="121">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="100">
         <v>21</v>
       </c>
-      <c r="Y11" s="121"/>
+      <c r="Y11" s="100"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3336,17 +3339,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3395,23 +3398,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122">
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101">
         <v>42</v>
       </c>
-      <c r="Y13" s="122"/>
+      <c r="Y13" s="101"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3460,11 +3463,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3590,6 +3593,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -3599,20 +3616,6 @@
     <mergeCell ref="E9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y11:Y14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3800,147 +3803,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за БЕРЕЗЕНЬ 2022 р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="100" t="s">
+      <c r="Y9" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="112"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="109">
         <v>1</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="25">
@@ -3991,16 +3994,16 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="121">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="100">
         <v>21</v>
       </c>
       <c r="Y11" s="158"/>
@@ -4010,10 +4013,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4062,17 +4065,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="123"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="102"/>
       <c r="Y12" s="159"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4121,20 +4124,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="121">
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="100">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
       <c r="Y13" s="159"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4183,10 +4186,10 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
       <c r="Y14" s="160"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
@@ -4313,19 +4316,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4336,6 +4326,19 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4364,12 +4367,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
       <c r="Q1" s="15" t="s">
         <v>38</v>
       </c>
@@ -4513,149 +4516,149 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="105" t="str">
+      <c r="A8" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за БЕРЕЗЕНЬ 2022 р.</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="112"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="109">
         <v>2</v>
       </c>
       <c r="C11" s="127" t="s">
@@ -4712,26 +4715,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="121">
+      <c r="Y11" s="100">
         <v>21</v>
       </c>
-      <c r="Z11" s="124">
+      <c r="Z11" s="103">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="127"/>
       <c r="D12" s="128"/>
       <c r="E12" s="26" t="s">
@@ -4782,16 +4785,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="124"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="103"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="127"/>
       <c r="D13" s="128"/>
       <c r="E13" s="27">
@@ -4842,18 +4845,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="121">
+      <c r="Y13" s="100">
         <v>42</v>
       </c>
-      <c r="Z13" s="124"/>
+      <c r="Z13" s="103"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="127"/>
       <c r="D14" s="128"/>
       <c r="E14" s="26">
@@ -4904,18 +4907,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="124"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="103"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="125"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -4997,6 +5000,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -5013,15 +5025,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5034,8 +5037,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17:X18"/>
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL30" sqref="AL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5054,11 +5057,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
       <c r="Q2" s="15" t="s">
         <v>38</v>
       </c>
@@ -5172,141 +5175,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
     </row>
     <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="114" t="s">
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="U9" s="114" t="s">
+      <c r="U9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="Y9" s="100" t="s">
+      <c r="Y9" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="112"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="111" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="25">
@@ -5357,20 +5360,20 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
+      <c r="T11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="42"/>
-      <c r="X11" s="121">
+      <c r="X11" s="100">
         <v>22</v>
       </c>
-      <c r="Y11" s="124">
+      <c r="Y11" s="103">
         <v>6565</v>
       </c>
       <c r="Z11" s="2">
@@ -5379,9 +5382,9 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -5430,12 +5433,12 @@
       <c r="S12" s="26">
         <v>8</v>
       </c>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="122"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="101"/>
       <c r="W12" s="44"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="124"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="103"/>
       <c r="Z12" s="2" t="s">
         <v>50</v>
       </c>
@@ -5445,9 +5448,9 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5496,24 +5499,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="122"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="44"/>
-      <c r="X13" s="121">
+      <c r="X13" s="100">
         <f>Z11+Z13</f>
         <v>175</v>
       </c>
-      <c r="Y13" s="124"/>
+      <c r="Y13" s="103"/>
       <c r="Z13" s="2">
         <f>SUM(D14:S14)</f>
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -5562,21 +5565,21 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120"/>
-      <c r="V14" s="123"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="102"/>
       <c r="W14" s="43"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="124"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="103"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115">
-        <v>2</v>
-      </c>
-      <c r="B15" s="116" t="s">
+      <c r="A15" s="109">
+        <v>2</v>
+      </c>
+      <c r="B15" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="111" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="25">
@@ -5627,22 +5630,22 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="121">
+      <c r="T15" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="100">
         <v>15</v>
       </c>
-      <c r="X15" s="121">
+      <c r="X15" s="100">
         <v>11</v>
       </c>
-      <c r="Y15" s="124">
+      <c r="Y15" s="103">
         <v>6825</v>
       </c>
       <c r="Z15" s="2">
@@ -5651,9 +5654,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -5702,12 +5705,12 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="124"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="103"/>
       <c r="Z16" s="2" t="s">
         <v>50</v>
       </c>
@@ -5717,9 +5720,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5768,24 +5771,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="121">
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="100">
         <f>Z15+Z17</f>
         <v>87</v>
       </c>
-      <c r="Y17" s="124"/>
+      <c r="Y17" s="103"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="115"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="26" t="s">
         <v>86</v>
       </c>
@@ -5834,21 +5837,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="123"/>
-      <c r="W18" s="123"/>
-      <c r="X18" s="123"/>
-      <c r="Y18" s="124"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="103"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="115">
+      <c r="A19" s="109">
         <v>3</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="111" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="25">
@@ -5899,20 +5902,20 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="121" t="s">
+      <c r="T19" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="100" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="50"/>
-      <c r="X19" s="121">
+      <c r="X19" s="100">
         <v>22</v>
       </c>
-      <c r="Y19" s="124">
+      <c r="Y19" s="103">
         <v>6565</v>
       </c>
       <c r="Z19" s="2">
@@ -5921,9 +5924,9 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -5972,12 +5975,12 @@
       <c r="S20" s="26">
         <v>8</v>
       </c>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="122"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="101"/>
       <c r="W20" s="52"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="124"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="103"/>
       <c r="Z20" s="2" t="s">
         <v>50</v>
       </c>
@@ -5987,9 +5990,9 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="115"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="117"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6038,24 +6041,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="122"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="101"/>
       <c r="W21" s="52"/>
-      <c r="X21" s="121">
+      <c r="X21" s="100">
         <f>Z19+Z21</f>
         <v>175</v>
       </c>
-      <c r="Y21" s="124"/>
+      <c r="Y21" s="103"/>
       <c r="Z21" s="2">
         <f>SUM(D22:S22)</f>
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="115"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -6104,15 +6107,15 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="120"/>
-      <c r="U22" s="120"/>
-      <c r="V22" s="123"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="102"/>
       <c r="W22" s="51"/>
-      <c r="X22" s="123"/>
-      <c r="Y22" s="124"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="103"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115">
+      <c r="A23" s="109">
         <v>4</v>
       </c>
       <c r="B23" s="127" t="s">
@@ -6169,22 +6172,22 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W23" s="121">
+      <c r="T23" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="100">
         <v>15</v>
       </c>
-      <c r="X23" s="121">
+      <c r="X23" s="100">
         <v>11</v>
       </c>
-      <c r="Y23" s="124">
+      <c r="Y23" s="103">
         <v>6565</v>
       </c>
       <c r="Z23" s="2">
@@ -6193,7 +6196,7 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="127"/>
       <c r="C24" s="128"/>
       <c r="D24" s="26">
@@ -6244,12 +6247,12 @@
       <c r="S24" s="26">
         <v>8</v>
       </c>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="123"/>
-      <c r="Y24" s="124"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="103"/>
       <c r="Z24" s="2" t="s">
         <v>50</v>
       </c>
@@ -6259,7 +6262,7 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="127"/>
       <c r="C25" s="128"/>
       <c r="D25" s="27">
@@ -6310,22 +6313,22 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="119"/>
-      <c r="U25" s="119"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="121">
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="100">
         <f>Z23+Z25</f>
         <v>87</v>
       </c>
-      <c r="Y25" s="124"/>
+      <c r="Y25" s="103"/>
       <c r="Z25" s="2">
         <f>SUM(D26:S26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="115"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="127"/>
       <c r="C26" s="128"/>
       <c r="D26" s="26" t="s">
@@ -6376,21 +6379,21 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="120"/>
-      <c r="U26" s="120"/>
-      <c r="V26" s="123"/>
-      <c r="W26" s="123"/>
-      <c r="X26" s="123"/>
-      <c r="Y26" s="124"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="103"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="115">
+      <c r="A27" s="109">
         <v>5</v>
       </c>
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="117" t="s">
+      <c r="C27" s="111" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="25">
@@ -6441,22 +6444,22 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W27" s="121">
+      <c r="T27" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="100">
         <v>15</v>
       </c>
-      <c r="X27" s="121">
+      <c r="X27" s="100">
         <v>11</v>
       </c>
-      <c r="Y27" s="124">
+      <c r="Y27" s="103">
         <v>6565</v>
       </c>
       <c r="Z27" s="2">
@@ -6465,9 +6468,9 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="115"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="117"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="111"/>
       <c r="D28" s="26">
         <v>8</v>
       </c>
@@ -6516,12 +6519,12 @@
       <c r="S28" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="T28" s="119"/>
-      <c r="U28" s="119"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="124"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="103"/>
       <c r="Z28" s="2" t="s">
         <v>50</v>
       </c>
@@ -6531,9 +6534,9 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="115"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="117"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="27">
         <v>17</v>
       </c>
@@ -6582,24 +6585,24 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="121">
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="100">
         <f>Z27+Z29</f>
         <v>87</v>
       </c>
-      <c r="Y29" s="124"/>
+      <c r="Y29" s="103"/>
       <c r="Z29" s="2">
         <f>SUM(D30:S30)</f>
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="115"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="117"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="26" t="s">
         <v>86</v>
       </c>
@@ -6648,12 +6651,12 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="123"/>
-      <c r="W30" s="123"/>
-      <c r="X30" s="123"/>
-      <c r="Y30" s="124"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="103"/>
     </row>
     <row r="31" spans="1:27" s="32" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="31"/>
@@ -6668,10 +6671,10 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="125"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="33">
         <v>44652</v>
       </c>
@@ -6737,28 +6740,28 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="W23:W26"/>
-    <mergeCell ref="W27:W30"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:W8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="V23:V26"/>
     <mergeCell ref="A23:A26"/>
@@ -6775,30 +6778,30 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="T15:T18"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:W8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="W23:W26"/>
+    <mergeCell ref="W27:W30"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
     <mergeCell ref="U27:U30"/>
     <mergeCell ref="V27:V30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6810,10 +6813,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="99" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:S28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="99" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6834,11 +6837,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
       <c r="Q1" s="15" t="s">
         <v>38</v>
       </c>
@@ -6928,142 +6931,142 @@
       <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
+      <c r="A5" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
     </row>
     <row r="6" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="str">
+      <c r="A6" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за БЕРЕЗЕНЬ 2022 р.</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="114" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="114" t="s">
+      <c r="U7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="114" t="s">
+      <c r="V7" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="W7" s="114" t="s">
+      <c r="W7" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="X7" s="114" t="s">
+      <c r="X7" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="Y7" s="100" t="s">
+      <c r="Y7" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="100"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="112"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="115">
+      <c r="A9" s="109">
         <v>1</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="136" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="25">
@@ -7114,29 +7117,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="121">
+      <c r="T9" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="100">
         <v>22</v>
       </c>
-      <c r="Y9" s="124">
+      <c r="Y9" s="103">
         <v>6825</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="139"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="26">
         <v>8</v>
       </c>
@@ -7185,21 +7188,21 @@
       <c r="S10" s="26">
         <v>8</v>
       </c>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="124"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="103"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="139"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -7248,20 +7251,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="121">
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="100">
         <f>Z10+Z12</f>
         <v>175</v>
       </c>
-      <c r="Y11" s="124"/>
+      <c r="Y11" s="103"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="140"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -7310,25 +7313,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="123"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="124"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="103"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115">
-        <v>2</v>
-      </c>
-      <c r="B13" s="116" t="s">
+      <c r="A13" s="109">
+        <v>2</v>
+      </c>
+      <c r="B13" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="117" t="str">
+      <c r="C13" s="111" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -7380,22 +7383,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="121">
+      <c r="T13" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="100">
         <v>22</v>
       </c>
-      <c r="Y13" s="124">
+      <c r="Y13" s="103">
         <v>6825</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -7407,9 +7410,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -7458,12 +7461,12 @@
       <c r="S14" s="26">
         <v>8</v>
       </c>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="124"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="103"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>87</v>
@@ -7474,9 +7477,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -7525,20 +7528,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="121">
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="100">
         <f>Z14+Z16</f>
         <v>175</v>
       </c>
-      <c r="Y15" s="124"/>
+      <c r="Y15" s="103"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -7587,12 +7590,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="123"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="124"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="103"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>88</v>
@@ -7602,14 +7605,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="135">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="145">
         <v>3</v>
       </c>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="135" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="25">
@@ -7660,92 +7663,92 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="132" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="129">
+      <c r="T17" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="142" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="139">
+        <v>15</v>
+      </c>
+      <c r="X17" s="139">
         <v>22</v>
       </c>
-      <c r="Y17" s="124">
+      <c r="Y17" s="103">
         <v>6565</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="135"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="26">
-        <v>4</v>
-      </c>
-      <c r="E18" s="26">
-        <v>4</v>
-      </c>
-      <c r="F18" s="26">
-        <v>4</v>
-      </c>
-      <c r="G18" s="26">
-        <v>3.5</v>
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="145"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="26">
-        <v>4</v>
-      </c>
-      <c r="M18" s="26">
-        <v>4</v>
-      </c>
-      <c r="N18" s="26">
-        <v>4</v>
-      </c>
-      <c r="O18" s="26">
-        <v>4</v>
+        <v>86</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="P18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>4</v>
-      </c>
-      <c r="R18" s="26">
-        <v>4</v>
+        <v>86</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="S18" s="26">
         <v>4</v>
       </c>
-      <c r="T18" s="119"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="130"/>
-      <c r="W18" s="130"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="124"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="141"/>
+      <c r="W18" s="141"/>
+      <c r="X18" s="140"/>
+      <c r="Y18" s="103"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="135"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="145"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -7794,20 +7797,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="119"/>
-      <c r="U19" s="133"/>
-      <c r="V19" s="130"/>
-      <c r="W19" s="130"/>
-      <c r="X19" s="121">
+      <c r="T19" s="107"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="141"/>
+      <c r="W19" s="141"/>
+      <c r="X19" s="100">
         <f>Z18+Z20</f>
-        <v>87.5</v>
-      </c>
-      <c r="Y19" s="124"/>
-    </row>
-    <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="135"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="137"/>
+        <v>48</v>
+      </c>
+      <c r="Y19" s="103"/>
+    </row>
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="145"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="135"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -7856,25 +7859,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="120"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="124"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="144"/>
+      <c r="V20" s="140"/>
+      <c r="W20" s="140"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="103"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="144">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="129">
         <v>4</v>
       </c>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="135" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="25">
@@ -7925,29 +7928,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="121">
+      <c r="T21" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="100">
+        <v>15</v>
+      </c>
+      <c r="X21" s="100">
         <v>22</v>
       </c>
-      <c r="Y21" s="124">
+      <c r="Y21" s="103">
         <v>6565</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="145"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="137"/>
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="130"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="135"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -7996,21 +7999,21 @@
       <c r="S22" s="26">
         <v>8</v>
       </c>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="124"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="103"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="145"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="137"/>
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="130"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -8059,87 +8062,87 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="122"/>
-      <c r="X23" s="121">
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="100">
         <f>Z22+Z24</f>
-        <v>175</v>
-      </c>
-      <c r="Y23" s="124"/>
-    </row>
-    <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="146"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="26">
-        <v>8</v>
-      </c>
-      <c r="E24" s="26">
-        <v>8</v>
+        <v>87</v>
+      </c>
+      <c r="Y23" s="103"/>
+    </row>
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="131"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="26">
-        <v>8</v>
-      </c>
-      <c r="I24" s="26">
-        <v>8</v>
-      </c>
-      <c r="J24" s="26">
-        <v>8</v>
-      </c>
-      <c r="K24" s="26">
-        <v>8</v>
-      </c>
-      <c r="L24" s="26">
-        <v>8</v>
+        <v>86</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="N24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="26">
-        <v>8</v>
-      </c>
-      <c r="P24" s="26">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="26">
-        <v>8</v>
-      </c>
-      <c r="R24" s="26">
-        <v>8</v>
+        <v>86</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="R24" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="123"/>
-      <c r="X24" s="123"/>
-      <c r="Y24" s="124"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="103"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="144">
-        <v>4</v>
-      </c>
-      <c r="B25" s="141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="129">
+        <v>5</v>
+      </c>
+      <c r="B25" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="137" t="s">
+      <c r="C25" s="135" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="25">
@@ -8190,29 +8193,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="121">
+      <c r="T25" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="100">
+        <v>15</v>
+      </c>
+      <c r="X25" s="100">
         <v>22</v>
       </c>
-      <c r="Y25" s="124">
+      <c r="Y25" s="103">
         <v>6565</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="145"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="137"/>
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="130"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="135"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -8243,39 +8246,39 @@
       <c r="M26" s="26">
         <v>8</v>
       </c>
-      <c r="N26" s="26">
-        <v>8</v>
-      </c>
-      <c r="O26" s="26">
-        <v>8</v>
+      <c r="N26" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q26" s="26">
-        <v>8</v>
-      </c>
-      <c r="R26" s="26">
-        <v>8</v>
-      </c>
-      <c r="S26" s="26">
-        <v>8</v>
-      </c>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122"/>
-      <c r="Y26" s="124"/>
+        <v>86</v>
+      </c>
+      <c r="Q26" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="R26" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="S26" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="103"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="145"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="137"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="130"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="135"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -8324,46 +8327,46 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="119"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="121">
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="100">
         <f>Z26+Z28</f>
-        <v>175</v>
-      </c>
-      <c r="Y27" s="124"/>
-    </row>
-    <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="146"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="26">
-        <v>8</v>
-      </c>
-      <c r="E28" s="26">
-        <v>8</v>
+        <v>79</v>
+      </c>
+      <c r="Y27" s="103"/>
+    </row>
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="131"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="26">
-        <v>8</v>
-      </c>
-      <c r="I28" s="26">
-        <v>8</v>
-      </c>
-      <c r="J28" s="26">
-        <v>8</v>
-      </c>
-      <c r="K28" s="26">
-        <v>8</v>
-      </c>
-      <c r="L28" s="26">
-        <v>8</v>
+        <v>86</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="M28" s="26" t="s">
         <v>13</v>
@@ -8386,201 +8389,442 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="123"/>
-      <c r="W28" s="123"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="124"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="103"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="129">
+        <v>6</v>
+      </c>
+      <c r="B29" s="132" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1</v>
+      </c>
+      <c r="E29" s="25">
+        <v>2</v>
+      </c>
+      <c r="F29" s="25">
+        <v>3</v>
+      </c>
+      <c r="G29" s="25">
+        <v>4</v>
+      </c>
+      <c r="H29" s="25">
+        <v>5</v>
+      </c>
+      <c r="I29" s="25">
+        <v>6</v>
+      </c>
+      <c r="J29" s="25">
+        <v>7</v>
+      </c>
+      <c r="K29" s="25">
+        <v>8</v>
+      </c>
+      <c r="L29" s="25">
+        <v>9</v>
+      </c>
+      <c r="M29" s="25">
+        <v>10</v>
+      </c>
+      <c r="N29" s="25">
+        <v>11</v>
+      </c>
+      <c r="O29" s="25">
+        <v>12</v>
+      </c>
+      <c r="P29" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="25">
+        <v>14</v>
+      </c>
+      <c r="R29" s="25">
+        <v>15</v>
+      </c>
+      <c r="S29" s="25">
+        <v>16</v>
+      </c>
+      <c r="T29" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="100">
+        <v>22</v>
+      </c>
+      <c r="Y29" s="103">
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="130"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="26">
+        <v>8</v>
+      </c>
+      <c r="E30" s="26">
+        <v>8</v>
+      </c>
+      <c r="F30" s="26">
+        <v>8</v>
+      </c>
+      <c r="G30" s="26">
+        <v>7</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="26">
+        <v>8</v>
+      </c>
+      <c r="M30" s="26">
+        <v>8</v>
+      </c>
+      <c r="N30" s="26">
+        <v>8</v>
+      </c>
+      <c r="O30" s="26">
+        <v>8</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>8</v>
+      </c>
+      <c r="R30" s="26">
+        <v>8</v>
+      </c>
+      <c r="S30" s="26">
+        <v>8</v>
+      </c>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="2">
+        <f>SUM(D30:S30)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="130"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="27">
+        <v>17</v>
+      </c>
+      <c r="E31" s="27">
+        <v>18</v>
+      </c>
+      <c r="F31" s="27">
+        <v>19</v>
+      </c>
+      <c r="G31" s="27">
+        <v>20</v>
+      </c>
+      <c r="H31" s="27">
+        <v>21</v>
+      </c>
+      <c r="I31" s="27">
+        <v>22</v>
+      </c>
+      <c r="J31" s="27">
+        <v>23</v>
+      </c>
+      <c r="K31" s="27">
+        <v>24</v>
+      </c>
+      <c r="L31" s="27">
+        <v>25</v>
+      </c>
+      <c r="M31" s="27">
+        <v>26</v>
+      </c>
+      <c r="N31" s="27">
+        <v>27</v>
+      </c>
+      <c r="O31" s="27">
+        <v>28</v>
+      </c>
+      <c r="P31" s="27">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="28">
+        <v>30</v>
+      </c>
+      <c r="R31" s="28">
+        <v>31</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="T31" s="107"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="100">
+        <f>Z30+Z32</f>
+        <v>175</v>
+      </c>
+      <c r="Y31" s="103"/>
+    </row>
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="131"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="26">
+        <v>8</v>
+      </c>
+      <c r="E32" s="26">
+        <v>8</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="26">
+        <v>8</v>
+      </c>
+      <c r="I32" s="26">
+        <v>8</v>
+      </c>
+      <c r="J32" s="26">
+        <v>8</v>
+      </c>
+      <c r="K32" s="26">
+        <v>8</v>
+      </c>
+      <c r="L32" s="26">
+        <v>8</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="26">
+        <v>8</v>
+      </c>
+      <c r="P32" s="26">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>8</v>
+      </c>
+      <c r="R32" s="26">
+        <v>8</v>
+      </c>
+      <c r="S32" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="2">
+        <f>SUM(D32:S32)</f>
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9">
+    <row r="33" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9">
         <f>SUM(X11+X15+X19+X23)</f>
-        <v>612.5</v>
-      </c>
-      <c r="Y29" s="35">
+        <v>485</v>
+      </c>
+      <c r="Y33" s="35">
         <f>SUM(Y9:Y24)</f>
         <v>26780</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="125" t="s">
+    <row r="34" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="93">
+      <c r="B34" s="104"/>
+      <c r="C34" s="93">
         <f>Мельницький!C32</f>
         <v>44652</v>
       </c>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91" t="s">
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="91"/>
-      <c r="AC30" s="91"/>
-      <c r="AD30" s="91"/>
-    </row>
-    <row r="31" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="48" t="s">
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="91"/>
+    </row>
+    <row r="35" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="20"/>
+    </row>
+    <row r="36" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-    </row>
-    <row r="33" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-    </row>
-    <row r="34" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-    </row>
-    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-    </row>
-    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="49"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="49"/>
       <c r="F36" s="49"/>
     </row>
-    <row r="37" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
     </row>
-    <row r="38" spans="1:30" s="91" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+    <row r="38" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-    </row>
-    <row r="40" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
+        <v>65</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+    </row>
+    <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+    </row>
+    <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="49"/>
       <c r="E40" s="49"/>
       <c r="F40" s="49"/>
     </row>
     <row r="41" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C41"/>
+      <c r="C41" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="D41" s="48"/>
       <c r="E41" s="49"/>
       <c r="F41" s="49"/>
     </row>
-    <row r="42" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C42"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-    </row>
-    <row r="43" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C43"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
+    <row r="42" spans="1:30" s="91" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
     </row>
     <row r="44" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C44"/>
-      <c r="D44" s="49"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="49"/>
       <c r="F44" s="49"/>
     </row>
@@ -8590,60 +8834,46 @@
       <c r="E45" s="49"/>
       <c r="F45" s="49"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C46" s="48"/>
+    <row r="46" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C46"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+    </row>
+    <row r="47" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+    </row>
+    <row r="48" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+    </row>
+    <row r="49" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C49"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="A30:B30"/>
+  <mergeCells count="74">
+    <mergeCell ref="V29:V32"/>
+    <mergeCell ref="W29:W32"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="T29:T32"/>
+    <mergeCell ref="U29:U32"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
     <mergeCell ref="W21:W24"/>
@@ -8659,6 +8889,54 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8827,63 +9105,63 @@
       <c r="Y5" s="74"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
+      <c r="A6" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="str">
+      <c r="A7" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за БЕРЕЗЕНЬ 2022 р.</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="73"/>
@@ -8913,90 +9191,90 @@
       <c r="Y8" s="73"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="106"/>
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="112"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="144">
+      <c r="A11" s="129">
         <v>1</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="25">
@@ -9047,22 +9325,22 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="150"/>
-      <c r="V11" s="150"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="150"/>
-      <c r="Y11" s="129">
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="139">
         <v>22</v>
       </c>
-      <c r="Z11" s="147">
+      <c r="Z11" s="150">
         <v>6565</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="145"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -9111,18 +9389,18 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="148"/>
+      <c r="U12" s="148"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="151"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -9171,20 +9449,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="121">
+      <c r="U13" s="148"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="100">
         <v>87.5</v>
       </c>
-      <c r="Z13" s="148"/>
+      <c r="Z13" s="151"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="146"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="131"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -9233,22 +9511,22 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="152"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="144">
-        <v>2</v>
-      </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118" t="s">
+      <c r="A15" s="129">
+        <v>2</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="111" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="25">
@@ -9299,22 +9577,22 @@
       <c r="T15" s="25">
         <v>16</v>
       </c>
-      <c r="U15" s="150"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="150"/>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="129">
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="139">
         <v>22</v>
       </c>
-      <c r="Z15" s="147">
+      <c r="Z15" s="150">
         <v>6565</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="145"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="117"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="26">
         <v>4</v>
       </c>
@@ -9363,18 +9641,18 @@
       <c r="T16" s="26">
         <v>4</v>
       </c>
-      <c r="U16" s="151"/>
-      <c r="V16" s="151"/>
-      <c r="W16" s="151"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="148"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="148"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="151"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="145"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="117"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="27">
         <v>17</v>
       </c>
@@ -9423,20 +9701,20 @@
       <c r="T17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="151"/>
-      <c r="V17" s="151"/>
-      <c r="W17" s="151"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="121">
+      <c r="U17" s="148"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="148"/>
+      <c r="X17" s="148"/>
+      <c r="Y17" s="100">
         <v>87.5</v>
       </c>
-      <c r="Z17" s="148"/>
+      <c r="Z17" s="151"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="146"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="117"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="26">
         <v>4</v>
       </c>
@@ -9485,12 +9763,12 @@
       <c r="T18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U18" s="152"/>
-      <c r="V18" s="152"/>
-      <c r="W18" s="152"/>
-      <c r="X18" s="152"/>
-      <c r="Y18" s="123"/>
-      <c r="Z18" s="149"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="152"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -9521,10 +9799,10 @@
       <c r="Z19" s="85"/>
     </row>
     <row r="20" spans="1:26" s="98" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="125"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="99">
         <f>Мельницький!C32</f>
         <v>44652</v>
@@ -9588,11 +9866,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="X9:X10"/>
@@ -9609,21 +9897,11 @@
     <mergeCell ref="W15:W18"/>
     <mergeCell ref="X15:X18"/>
     <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -9658,11 +9936,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
       <c r="N1" s="15" t="s">
         <v>38</v>
       </c>
@@ -9812,145 +10090,145 @@
       <c r="Z6" s="94"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
       <c r="X7" s="76"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="105" t="str">
+      <c r="A8" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за БЕРЕЗЕНЬ 2022 р.</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="114" t="s">
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="U9" s="114" t="s">
+      <c r="U9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="Y9" s="100" t="s">
+      <c r="Y9" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="112"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="111" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="25">
@@ -10001,28 +10279,28 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
+      <c r="T11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="153"/>
-      <c r="X11" s="121">
+      <c r="X11" s="100">
         <v>22</v>
       </c>
-      <c r="Y11" s="124">
+      <c r="Y11" s="103">
         <v>6000</v>
       </c>
       <c r="Z11" s="96"/>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -10071,21 +10349,21 @@
       <c r="S12" s="26">
         <v>2</v>
       </c>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="122"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="101"/>
       <c r="W12" s="154"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="124"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="103"/>
       <c r="Z12" s="96">
         <f>SUM(D12:S12)</f>
         <v>21.75</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -10134,20 +10412,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="122"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="154"/>
       <c r="X13" s="156">
         <f>Z12+Z14</f>
         <v>43.75</v>
       </c>
-      <c r="Y13" s="124"/>
+      <c r="Y13" s="103"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="26">
         <v>2</v>
       </c>
@@ -10196,25 +10474,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120"/>
-      <c r="V14" s="123"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="102"/>
       <c r="W14" s="155"/>
       <c r="X14" s="157"/>
-      <c r="Y14" s="124"/>
+      <c r="Y14" s="103"/>
       <c r="Z14" s="95">
         <f>SUM(D14:S14)</f>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115">
-        <v>2</v>
-      </c>
-      <c r="B15" s="116" t="s">
+      <c r="A15" s="109">
+        <v>2</v>
+      </c>
+      <c r="B15" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="111" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="25">
@@ -10265,28 +10543,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="121" t="s">
+      <c r="T15" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="100" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="153"/>
-      <c r="X15" s="121">
+      <c r="X15" s="100">
         <v>22</v>
       </c>
-      <c r="Y15" s="124">
+      <c r="Y15" s="103">
         <v>6000</v>
       </c>
       <c r="Z15" s="96"/>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -10335,21 +10613,21 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="122"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="154"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="124"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="103"/>
       <c r="Z16" s="96">
         <f>SUM(D16:S16)</f>
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -10398,20 +10676,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="122"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="101"/>
       <c r="W17" s="154"/>
-      <c r="X17" s="121">
+      <c r="X17" s="100">
         <f>Z16+Z18</f>
         <v>175</v>
       </c>
-      <c r="Y17" s="124"/>
+      <c r="Y17" s="103"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="115"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -10460,12 +10738,12 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="123"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="102"/>
       <c r="W18" s="155"/>
-      <c r="X18" s="123"/>
-      <c r="Y18" s="124"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="103"/>
       <c r="Z18" s="95">
         <f>SUM(D18:S18)</f>
         <v>88</v>
@@ -10575,26 +10853,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:Y8"/>
@@ -10608,6 +10866,26 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -10635,12 +10913,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
       <c r="R1" s="15" t="s">
         <v>38</v>
       </c>
@@ -10785,147 +11063,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за БЕРЕЗЕНЬ 2022 р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="100" t="s">
+      <c r="Y9" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="112"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="144">
+      <c r="B11" s="129">
         <v>1</v>
       </c>
       <c r="C11" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="138" t="s">
+      <c r="D11" s="136" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="25">
@@ -10976,16 +11254,16 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="121">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="100">
         <v>22</v>
       </c>
       <c r="Y11" s="158">
@@ -10997,10 +11275,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="163"/>
-      <c r="D12" s="139"/>
+      <c r="D12" s="137"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -11049,17 +11327,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="123"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="102"/>
       <c r="Y12" s="159"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="145"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="163"/>
-      <c r="D13" s="139"/>
+      <c r="D13" s="137"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -11108,20 +11386,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="121">
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="100">
         <f>Z11+Z14</f>
         <v>160</v>
       </c>
       <c r="Y13" s="159"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="146"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="164"/>
-      <c r="D14" s="140"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -11170,10 +11448,10 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
       <c r="Y14" s="160"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
@@ -11290,12 +11568,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -11306,14 +11586,12 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11349,49 +11627,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
@@ -11501,147 +11779,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="105" t="str">
+      <c r="A8" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за БЕРЕЗЕНЬ 2022 р.</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="112"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="25">
@@ -11692,20 +11970,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="45"/>
-      <c r="Y11" s="121">
+      <c r="Y11" s="100">
         <v>22</v>
       </c>
-      <c r="Z11" s="124">
+      <c r="Z11" s="103">
         <v>6060</v>
       </c>
       <c r="AA11" s="2">
@@ -11714,10 +11992,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -11766,18 +12044,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
       <c r="X12" s="47"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="124"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="103"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -11826,24 +12104,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
       <c r="X13" s="47"/>
-      <c r="Y13" s="121">
+      <c r="Y13" s="100">
         <v>43.5</v>
       </c>
-      <c r="Z13" s="124"/>
+      <c r="Z13" s="103"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>37.75</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -11892,12 +12170,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
       <c r="X14" s="46"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="124"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="103"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -11982,10 +12260,10 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="125"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="165">
         <f>Мельницький!C32</f>
         <v>44652</v>
@@ -12000,14 +12278,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -12023,11 +12298,14 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -12061,11 +12339,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
       <c r="Q1" s="15" t="s">
         <v>38</v>
       </c>
@@ -12179,141 +12457,141 @@
       <c r="W5" s="67"/>
     </row>
     <row r="6" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
+      <c r="A6" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
     </row>
     <row r="7" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="114" t="s">
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="114" t="s">
+      <c r="U8" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="V8" s="114" t="s">
+      <c r="V8" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="W8" s="114" t="s">
+      <c r="W8" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="X8" s="114" t="s">
+      <c r="X8" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="Y8" s="100" t="s">
+      <c r="Y8" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="100"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="112"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115">
+      <c r="A10" s="109">
         <v>1</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="111" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="25">
@@ -12364,29 +12642,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="124">
+      <c r="T10" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="103">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="26" t="s">
         <v>86</v>
       </c>
@@ -12435,17 +12713,17 @@
       <c r="S11" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="124"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="103"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12494,19 +12772,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="124"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="103"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="26" t="s">
         <v>86</v>
       </c>
@@ -12555,12 +12833,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="123"/>
-      <c r="Y13" s="124"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="103"/>
     </row>
     <row r="14" spans="1:25" s="66" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="65"/>
@@ -12575,10 +12853,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="125"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="68">
         <f>Мельницький!C32</f>
         <v>44652</v>
@@ -12645,6 +12923,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -12659,16 +12947,6 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12833,63 +13111,63 @@
       <c r="Y5" s="57"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
+      <c r="A6" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="str">
+      <c r="A7" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за БЕРЕЗЕНЬ 2022 р.</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
@@ -12919,94 +13197,94 @@
       <c r="Y8" s="58"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="112"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="109">
         <v>1</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="25">
@@ -13057,17 +13335,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="153"/>
-      <c r="Y11" s="121">
+      <c r="Y11" s="100">
         <v>20</v>
       </c>
       <c r="Z11" s="166">
@@ -13075,10 +13353,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26" t="s">
         <v>86</v>
       </c>
@@ -13127,18 +13405,18 @@
       <c r="T12" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
       <c r="X12" s="154"/>
-      <c r="Y12" s="123"/>
+      <c r="Y12" s="102"/>
       <c r="Z12" s="166"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13187,20 +13465,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
       <c r="X13" s="154"/>
-      <c r="Y13" s="121">
+      <c r="Y13" s="100">
         <v>160</v>
       </c>
       <c r="Z13" s="166"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26" t="s">
         <v>86</v>
       </c>
@@ -13249,18 +13527,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
       <c r="X14" s="155"/>
-      <c r="Y14" s="123"/>
+      <c r="Y14" s="102"/>
       <c r="Z14" s="166"/>
     </row>
     <row r="15" spans="1:26" s="56" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="125"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="55">
         <f>Мельницький!C32</f>
         <v>44652</v>
@@ -13324,6 +13602,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13337,18 +13627,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
